--- a/homework/Project 1/predictions/ATMs.xlsx
+++ b/homework/Project 1/predictions/ATMs.xlsx
@@ -15,48 +15,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
-  <si>
-    <t>53.14286</t>
-  </si>
-  <si>
-    <t>53.28571</t>
-  </si>
-  <si>
-    <t>53.42857</t>
-  </si>
-  <si>
-    <t>53.57143</t>
-  </si>
-  <si>
-    <t>53.71429</t>
-  </si>
-  <si>
-    <t>53.85714</t>
-  </si>
-  <si>
-    <t>54.00000</t>
-  </si>
-  <si>
-    <t>54.14286</t>
-  </si>
-  <si>
-    <t>54.28571</t>
-  </si>
-  <si>
-    <t>54.42857</t>
-  </si>
-  <si>
-    <t>54.57143</t>
-  </si>
-  <si>
-    <t>54.71429</t>
-  </si>
-  <si>
-    <t>54.85714</t>
-  </si>
-  <si>
-    <t>55.00000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 80</t>
+  </si>
+  <si>
+    <t>Hi 80</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -108,283 +174,641 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>86.67324421573267</v>
-      </c>
-      <c r="C1" t="n">
-        <v>55.69721809408921</v>
-      </c>
-      <c r="D1" t="n">
-        <v>117.64927033737612</v>
-      </c>
-      <c r="E1" t="n">
-        <v>39.29950037672192</v>
-      </c>
-      <c r="F1" t="n">
-        <v>134.0469880547434</v>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>100.36546826286286</v>
+        <v>86.49</v>
       </c>
       <c r="C2" t="n">
-        <v>69.38058491137176</v>
+        <v>55.6</v>
       </c>
       <c r="D2" t="n">
-        <v>131.35035161435397</v>
+        <v>117.39</v>
       </c>
       <c r="E2" t="n">
-        <v>52.978178459748214</v>
+        <v>39.24</v>
       </c>
       <c r="F2" t="n">
-        <v>147.7527580659775</v>
+        <v>133.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>72.82786171399792</v>
+        <v>100.18</v>
       </c>
       <c r="C3" t="n">
-        <v>41.83404947023213</v>
+        <v>69.28</v>
       </c>
       <c r="D3" t="n">
-        <v>103.82167395776371</v>
+        <v>131.09</v>
       </c>
       <c r="E3" t="n">
-        <v>25.42691634855497</v>
+        <v>52.92</v>
       </c>
       <c r="F3" t="n">
-        <v>120.22880707944087</v>
+        <v>147.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5.230580390791104</v>
+        <v>72.64</v>
       </c>
       <c r="C4" t="n">
-        <v>-25.77223265525263</v>
+        <v>41.73</v>
       </c>
       <c r="D4" t="n">
-        <v>36.23339343683484</v>
+        <v>103.55</v>
       </c>
       <c r="E4" t="n">
-        <v>-42.18413051383968</v>
+        <v>25.36</v>
       </c>
       <c r="F4" t="n">
-        <v>52.64529129542189</v>
+        <v>119.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>99.78861153950324</v>
+        <v>5.04</v>
       </c>
       <c r="C5" t="n">
-        <v>68.7767255343886</v>
+        <v>-25.88</v>
       </c>
       <c r="D5" t="n">
-        <v>130.80049754461788</v>
+        <v>35.96</v>
       </c>
       <c r="E5" t="n">
-        <v>52.360024741392806</v>
+        <v>-42.25</v>
       </c>
       <c r="F5" t="n">
-        <v>147.21719833761367</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>79.08034712450957</v>
+        <v>99.59</v>
       </c>
       <c r="C6" t="n">
-        <v>48.059315757532474</v>
+        <v>68.66</v>
       </c>
       <c r="D6" t="n">
-        <v>110.10137849148667</v>
+        <v>130.52</v>
       </c>
       <c r="E6" t="n">
-        <v>31.637773702405283</v>
+        <v>52.29</v>
       </c>
       <c r="F6" t="n">
-        <v>126.52292054661386</v>
+        <v>146.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>85.22739928934772</v>
+        <v>78.88</v>
       </c>
       <c r="C7" t="n">
-        <v>54.197149912513666</v>
+        <v>47.94</v>
       </c>
       <c r="D7" t="n">
-        <v>116.25764866618177</v>
+        <v>109.82</v>
       </c>
       <c r="E7" t="n">
-        <v>37.77072813772983</v>
+        <v>31.56</v>
       </c>
       <c r="F7" t="n">
-        <v>132.6840704409656</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>86.58865108497699</v>
+        <v>85.02</v>
       </c>
       <c r="C8" t="n">
-        <v>53.65442735651083</v>
+        <v>54.07</v>
       </c>
       <c r="D8" t="n">
-        <v>119.52287481344314</v>
+        <v>115.97</v>
       </c>
       <c r="E8" t="n">
-        <v>36.22010244281028</v>
+        <v>37.69</v>
       </c>
       <c r="F8" t="n">
-        <v>136.9571997271437</v>
+        <v>132.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>100.28087513210718</v>
+        <v>86.32</v>
       </c>
       <c r="C9" t="n">
-        <v>67.3378259234091</v>
+        <v>53.47</v>
       </c>
       <c r="D9" t="n">
-        <v>133.22392434080527</v>
+        <v>119.17</v>
       </c>
       <c r="E9" t="n">
-        <v>49.8988290826836</v>
+        <v>36.08</v>
       </c>
       <c r="F9" t="n">
-        <v>150.66292118153078</v>
+        <v>136.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>72.74326858324225</v>
+        <v>100.01</v>
       </c>
       <c r="C10" t="n">
-        <v>39.791324435006196</v>
+        <v>67.15</v>
       </c>
       <c r="D10" t="n">
-        <v>105.6952127314783</v>
+        <v>132.87</v>
       </c>
       <c r="E10" t="n">
-        <v>22.347618897720203</v>
+        <v>49.76</v>
       </c>
       <c r="F10" t="n">
-        <v>123.13891826876431</v>
+        <v>150.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>5.14598726003544</v>
+        <v>72.47</v>
       </c>
       <c r="C11" t="n">
-        <v>-27.814921521918286</v>
+        <v>39.6</v>
       </c>
       <c r="D11" t="n">
-        <v>38.10689604198917</v>
+        <v>105.33</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.26337264963491</v>
+        <v>22.2</v>
       </c>
       <c r="F11" t="n">
-        <v>55.55534716970579</v>
+        <v>122.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>99.70401840874756</v>
+        <v>4.87</v>
       </c>
       <c r="C12" t="n">
-        <v>66.73407506471929</v>
+        <v>-28.01</v>
       </c>
       <c r="D12" t="n">
-        <v>132.67396175277582</v>
+        <v>37.74</v>
       </c>
       <c r="E12" t="n">
-        <v>49.28084132873598</v>
+        <v>-45.41</v>
       </c>
       <c r="F12" t="n">
-        <v>150.12719548875913</v>
+        <v>55.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>78.9957539937539</v>
+        <v>99.42</v>
       </c>
       <c r="C13" t="n">
-        <v>46.01670592581744</v>
+        <v>66.53</v>
       </c>
       <c r="D13" t="n">
-        <v>111.97480206169035</v>
+        <v>132.3</v>
       </c>
       <c r="E13" t="n">
-        <v>28.558652440136264</v>
+        <v>49.13</v>
       </c>
       <c r="F13" t="n">
-        <v>129.43285554737153</v>
+        <v>149.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>85.14280615859205</v>
+        <v>78.71</v>
       </c>
       <c r="C14" t="n">
-        <v>52.15458297214147</v>
+        <v>45.81</v>
       </c>
       <c r="D14" t="n">
-        <v>118.13102934504263</v>
+        <v>111.6</v>
       </c>
       <c r="E14" t="n">
-        <v>34.691672472109026</v>
+        <v>28.4</v>
       </c>
       <c r="F14" t="n">
-        <v>135.59393984507508</v>
+        <v>129.01</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>84.85</v>
+      </c>
+      <c r="C15" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="D15" t="n">
+        <v>117.75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>135.17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>86.15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>51.44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>120.85</v>
+      </c>
+      <c r="E16" t="n">
+        <v>33.07</v>
+      </c>
+      <c r="F16" t="n">
+        <v>139.22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="C17" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>134.55</v>
+      </c>
+      <c r="E17" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>152.92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>72.29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="D18" t="n">
+        <v>107.01</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>125.39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-30.04</v>
+      </c>
+      <c r="D19" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-48.42</v>
+      </c>
+      <c r="F19" t="n">
+        <v>57.81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>99.25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64.51</v>
+      </c>
+      <c r="D20" t="n">
+        <v>133.98</v>
+      </c>
+      <c r="E20" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>152.37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="C21" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.28</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="F21" t="n">
+        <v>131.68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>84.68</v>
+      </c>
+      <c r="C22" t="n">
+        <v>49.92</v>
+      </c>
+      <c r="D22" t="n">
+        <v>119.43</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="F22" t="n">
+        <v>137.83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="C23" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>122.45</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>141.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>99.66</v>
+      </c>
+      <c r="C24" t="n">
+        <v>63.18</v>
+      </c>
+      <c r="D24" t="n">
+        <v>136.14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>43.87</v>
+      </c>
+      <c r="F24" t="n">
+        <v>155.45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="D25" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="F25" t="n">
+        <v>127.93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-31.98</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41.02</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-51.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>60.34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>99.07</v>
+      </c>
+      <c r="C27" t="n">
+        <v>62.57</v>
+      </c>
+      <c r="D27" t="n">
+        <v>135.58</v>
+      </c>
+      <c r="E27" t="n">
+        <v>43.24</v>
+      </c>
+      <c r="F27" t="n">
+        <v>154.91</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="D28" t="n">
+        <v>114.88</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="F28" t="n">
+        <v>134.21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="D29" t="n">
+        <v>121.03</v>
+      </c>
+      <c r="E29" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="F29" t="n">
+        <v>140.36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47.64</v>
+      </c>
+      <c r="D30" t="n">
+        <v>123.97</v>
+      </c>
+      <c r="E30" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="F30" t="n">
+        <v>144.17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>99.49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>61.31</v>
+      </c>
+      <c r="D31" t="n">
+        <v>137.67</v>
+      </c>
+      <c r="E31" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="F31" t="n">
+        <v>157.87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="D32" t="n">
+        <v>110.13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="F32" t="n">
+        <v>130.35</v>
       </c>
     </row>
   </sheetData>
@@ -401,283 +825,641 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>0.10212077187669344</v>
-      </c>
-      <c r="C1" t="n">
-        <v>-39.42657755177495</v>
-      </c>
-      <c r="D1" t="n">
-        <v>39.63081909552833</v>
-      </c>
-      <c r="E1" t="n">
-        <v>-60.351806446559316</v>
-      </c>
-      <c r="F1" t="n">
-        <v>60.5560479903127</v>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.42245691782461714</v>
+        <v>68.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-39.1268023342717</v>
+        <v>36.44</v>
       </c>
       <c r="D2" t="n">
-        <v>39.97171616992094</v>
+        <v>100.52</v>
       </c>
       <c r="E2" t="n">
-        <v>-60.06291552710381</v>
+        <v>19.47</v>
       </c>
       <c r="F2" t="n">
-        <v>60.90782936275305</v>
+        <v>117.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1702068735107396</v>
+        <v>74.32</v>
       </c>
       <c r="C3" t="n">
-        <v>-39.74014394661097</v>
+        <v>42.28</v>
       </c>
       <c r="D3" t="n">
-        <v>39.3997301995895</v>
+        <v>106.36</v>
       </c>
       <c r="E3" t="n">
-        <v>-60.68720331667386</v>
+        <v>25.32</v>
       </c>
       <c r="F3" t="n">
-        <v>60.34678956965237</v>
+        <v>123.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.36421053634211353</v>
+        <v>11.13</v>
       </c>
       <c r="C4" t="n">
-        <v>-39.95494253451834</v>
+        <v>-20.91</v>
       </c>
       <c r="D4" t="n">
-        <v>39.22652146183411</v>
+        <v>43.18</v>
       </c>
       <c r="E4" t="n">
-        <v>-60.91301007296315</v>
+        <v>-37.87</v>
       </c>
       <c r="F4" t="n">
-        <v>60.18458900027892</v>
+        <v>60.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.3043432986870043</v>
+        <v>2.15</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.30730093866868</v>
+        <v>-29.89</v>
       </c>
       <c r="D5" t="n">
-        <v>41.915987536042685</v>
+        <v>34.19</v>
       </c>
       <c r="E5" t="n">
-        <v>-58.27643874783046</v>
+        <v>-46.86</v>
       </c>
       <c r="F5" t="n">
-        <v>62.885125345204465</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7103197325535904</v>
+        <v>101.78</v>
       </c>
       <c r="C6" t="n">
-        <v>-36.92235426663255</v>
+        <v>69.74</v>
       </c>
       <c r="D6" t="n">
-        <v>42.34299373173974</v>
+        <v>133.83</v>
       </c>
       <c r="E6" t="n">
-        <v>-57.90262455924477</v>
+        <v>52.78</v>
       </c>
       <c r="F6" t="n">
-        <v>63.32326402435196</v>
+        <v>150.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9820608623998399</v>
+        <v>92.57</v>
       </c>
       <c r="C7" t="n">
-        <v>-40.63588235312895</v>
+        <v>60.53</v>
       </c>
       <c r="D7" t="n">
-        <v>38.67176062832927</v>
+        <v>124.61</v>
       </c>
       <c r="E7" t="n">
-        <v>-61.62734745153679</v>
+        <v>43.57</v>
       </c>
       <c r="F7" t="n">
-        <v>59.66322572673711</v>
+        <v>141.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.07678225313880593</v>
+        <v>69.31</v>
       </c>
       <c r="C8" t="n">
-        <v>-39.75199878042606</v>
+        <v>37.26</v>
       </c>
       <c r="D8" t="n">
-        <v>39.59843427414844</v>
+        <v>101.35</v>
       </c>
       <c r="E8" t="n">
-        <v>-60.75478972704487</v>
+        <v>20.3</v>
       </c>
       <c r="F8" t="n">
-        <v>60.601225220767255</v>
+        <v>118.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2435538928091178</v>
+        <v>68.52</v>
       </c>
       <c r="C9" t="n">
-        <v>-39.453046130857764</v>
+        <v>34.36</v>
       </c>
       <c r="D9" t="n">
-        <v>39.940153916476</v>
+        <v>102.69</v>
       </c>
       <c r="E9" t="n">
-        <v>-60.467156816686085</v>
+        <v>16.27</v>
       </c>
       <c r="F9" t="n">
-        <v>60.95426460230432</v>
+        <v>120.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3491098985262391</v>
+        <v>74.36</v>
       </c>
       <c r="C10" t="n">
-        <v>-40.067211760220985</v>
+        <v>40.2</v>
       </c>
       <c r="D10" t="n">
-        <v>39.36899196316851</v>
+        <v>108.53</v>
       </c>
       <c r="E10" t="n">
-        <v>-61.092704831543195</v>
+        <v>22.11</v>
       </c>
       <c r="F10" t="n">
-        <v>60.39448503449072</v>
+        <v>126.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.543113561357613</v>
+        <v>11.17</v>
       </c>
       <c r="C11" t="n">
-        <v>-40.28283580382472</v>
+        <v>-22.99</v>
       </c>
       <c r="D11" t="n">
-        <v>39.19660868110949</v>
+        <v>45.34</v>
       </c>
       <c r="E11" t="n">
-        <v>-61.319774013379146</v>
+        <v>-41.08</v>
       </c>
       <c r="F11" t="n">
-        <v>60.233546890663916</v>
+        <v>63.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2.125440273671505</v>
+        <v>2.19</v>
       </c>
       <c r="C12" t="n">
-        <v>-37.63602109191228</v>
+        <v>-31.98</v>
       </c>
       <c r="D12" t="n">
-        <v>41.8869016392553</v>
+        <v>36.35</v>
       </c>
       <c r="E12" t="n">
-        <v>-58.68446729809904</v>
+        <v>-50.07</v>
       </c>
       <c r="F12" t="n">
-        <v>62.93534784544205</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2.5314167075380913</v>
+        <v>101.82</v>
       </c>
       <c r="C13" t="n">
-        <v>-37.251902721608246</v>
+        <v>67.66</v>
       </c>
       <c r="D13" t="n">
-        <v>42.31473613668443</v>
+        <v>135.99</v>
       </c>
       <c r="E13" t="n">
-        <v>-58.311919887696035</v>
+        <v>49.57</v>
       </c>
       <c r="F13" t="n">
-        <v>63.37475330277222</v>
+        <v>154.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.1609638874153394</v>
+        <v>92.61</v>
       </c>
       <c r="C14" t="n">
-        <v>-40.96626051717144</v>
+        <v>58.44</v>
       </c>
       <c r="D14" t="n">
-        <v>38.64433274234076</v>
+        <v>126.77</v>
       </c>
       <c r="E14" t="n">
-        <v>-62.037911710503444</v>
+        <v>40.35</v>
       </c>
       <c r="F14" t="n">
-        <v>59.71598393567276</v>
+        <v>144.86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>103.51</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>121.59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="C16" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="D16" t="n">
+        <v>104.73</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="F16" t="n">
+        <v>123.87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>110.57</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>129.72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-24.97</v>
+      </c>
+      <c r="D18" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-44.11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>66.52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-33.96</v>
+      </c>
+      <c r="D19" t="n">
+        <v>38.39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-53.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>57.54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>101.85</v>
+      </c>
+      <c r="C20" t="n">
+        <v>65.68</v>
+      </c>
+      <c r="D20" t="n">
+        <v>138.02</v>
+      </c>
+      <c r="E20" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="F20" t="n">
+        <v>157.17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>92.63</v>
+      </c>
+      <c r="C21" t="n">
+        <v>56.46</v>
+      </c>
+      <c r="D21" t="n">
+        <v>128.81</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="F21" t="n">
+        <v>147.95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>69.37</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>124.69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="D23" t="n">
+        <v>106.65</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F23" t="n">
+        <v>126.81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>74.42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="D24" t="n">
+        <v>112.49</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>132.65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-26.85</v>
+      </c>
+      <c r="D25" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>69.46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-35.84</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40.31</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-55.99</v>
+      </c>
+      <c r="F26" t="n">
+        <v>60.47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>101.87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>139.95</v>
+      </c>
+      <c r="E27" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="F27" t="n">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>92.65</v>
+      </c>
+      <c r="C28" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="D28" t="n">
+        <v>130.73</v>
+      </c>
+      <c r="E28" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="F28" t="n">
+        <v>150.88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="D29" t="n">
+        <v>107.46</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="F29" t="n">
+        <v>127.62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="D30" t="n">
+        <v>108.49</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="D31" t="n">
+        <v>114.33</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="F31" t="n">
+        <v>135.44</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-28.64</v>
+      </c>
+      <c r="D32" t="n">
+        <v>51.13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-49.76</v>
+      </c>
+      <c r="F32" t="n">
+        <v>72.25</v>
       </c>
     </row>
   </sheetData>
@@ -694,283 +1476,641 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>87.97549660835776</v>
-      </c>
-      <c r="C1" t="n">
-        <v>81.43691920874579</v>
-      </c>
-      <c r="D1" t="n">
-        <v>94.51407400796973</v>
-      </c>
-      <c r="E1" t="n">
-        <v>77.97560541559012</v>
-      </c>
-      <c r="F1" t="n">
-        <v>97.9753878011254</v>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>90.95910153158322</v>
+        <v>87.98</v>
       </c>
       <c r="C2" t="n">
-        <v>82.35726139411426</v>
+        <v>81.44</v>
       </c>
       <c r="D2" t="n">
-        <v>99.56094166905217</v>
+        <v>94.52</v>
       </c>
       <c r="E2" t="n">
-        <v>77.80372228389311</v>
+        <v>77.98</v>
       </c>
       <c r="F2" t="n">
-        <v>104.11448077927332</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>93.95781432071158</v>
+        <v>90.96</v>
       </c>
       <c r="C3" t="n">
-        <v>83.58698818457182</v>
+        <v>82.36</v>
       </c>
       <c r="D3" t="n">
-        <v>104.32864045685133</v>
+        <v>99.56</v>
       </c>
       <c r="E3" t="n">
-        <v>78.09700445300814</v>
+        <v>77.81</v>
       </c>
       <c r="F3" t="n">
-        <v>109.81862418841501</v>
+        <v>104.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>96.96865557967588</v>
+        <v>93.95</v>
       </c>
       <c r="C4" t="n">
-        <v>84.98852656137926</v>
+        <v>83.58</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9487845979725</v>
+        <v>104.32</v>
       </c>
       <c r="E4" t="n">
-        <v>78.64662934421466</v>
+        <v>78.09</v>
       </c>
       <c r="F4" t="n">
-        <v>115.2906818151371</v>
+        <v>109.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>109.35337715082511</v>
+        <v>96.96</v>
       </c>
       <c r="C5" t="n">
-        <v>95.86325568007969</v>
+        <v>84.98</v>
       </c>
       <c r="D5" t="n">
-        <v>122.84349862157053</v>
+        <v>108.94</v>
       </c>
       <c r="E5" t="n">
-        <v>88.72201674318075</v>
+        <v>78.64</v>
       </c>
       <c r="F5" t="n">
-        <v>129.98473755846948</v>
+        <v>115.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>102.97363409866766</v>
+        <v>109.34</v>
       </c>
       <c r="C6" t="n">
-        <v>88.03987882260752</v>
+        <v>95.85</v>
       </c>
       <c r="D6" t="n">
-        <v>117.9073893747278</v>
+        <v>122.83</v>
       </c>
       <c r="E6" t="n">
-        <v>80.13442631183574</v>
+        <v>88.71</v>
       </c>
       <c r="F6" t="n">
-        <v>125.81284188549958</v>
+        <v>129.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>105.96356645848923</v>
+        <v>102.97</v>
       </c>
       <c r="C7" t="n">
-        <v>89.6323738124419</v>
+        <v>88.03</v>
       </c>
       <c r="D7" t="n">
-        <v>122.29475910453655</v>
+        <v>117.9</v>
       </c>
       <c r="E7" t="n">
-        <v>80.98716264344964</v>
+        <v>80.13</v>
       </c>
       <c r="F7" t="n">
-        <v>130.93997027352881</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>108.93949688205858</v>
+        <v>105.96</v>
       </c>
       <c r="C8" t="n">
-        <v>90.9882485927927</v>
+        <v>89.63</v>
       </c>
       <c r="D8" t="n">
-        <v>126.89074517132445</v>
+        <v>122.29</v>
       </c>
       <c r="E8" t="n">
-        <v>81.4854317703314</v>
+        <v>80.99</v>
       </c>
       <c r="F8" t="n">
-        <v>136.39356199378577</v>
+        <v>130.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>111.92310180528403</v>
+        <v>108.94</v>
       </c>
       <c r="C9" t="n">
-        <v>92.64870277630766</v>
+        <v>90.99</v>
       </c>
       <c r="D9" t="n">
-        <v>131.1975008342604</v>
+        <v>126.89</v>
       </c>
       <c r="E9" t="n">
-        <v>82.44545226225225</v>
+        <v>81.49</v>
       </c>
       <c r="F9" t="n">
-        <v>141.40075134831582</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>114.9218145944124</v>
+        <v>111.92</v>
       </c>
       <c r="C10" t="n">
-        <v>94.3386953056712</v>
+        <v>92.65</v>
       </c>
       <c r="D10" t="n">
-        <v>135.5049338831536</v>
+        <v>131.2</v>
       </c>
       <c r="E10" t="n">
-        <v>83.44265013466561</v>
+        <v>82.45</v>
       </c>
       <c r="F10" t="n">
-        <v>146.40097905415917</v>
+        <v>141.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>117.93265585337672</v>
+        <v>114.92</v>
       </c>
       <c r="C11" t="n">
-        <v>96.05075250335209</v>
+        <v>94.33</v>
       </c>
       <c r="D11" t="n">
-        <v>139.81455920340136</v>
+        <v>135.5</v>
       </c>
       <c r="E11" t="n">
-        <v>84.46717258114545</v>
+        <v>83.44</v>
       </c>
       <c r="F11" t="n">
-        <v>151.398139125608</v>
+        <v>146.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>130.31737742452592</v>
+        <v>117.92</v>
       </c>
       <c r="C12" t="n">
-        <v>107.14315693015055</v>
+        <v>96.04</v>
       </c>
       <c r="D12" t="n">
-        <v>153.49159791890128</v>
+        <v>139.8</v>
       </c>
       <c r="E12" t="n">
-        <v>94.87546563577632</v>
+        <v>84.46</v>
       </c>
       <c r="F12" t="n">
-        <v>165.7592892132755</v>
+        <v>151.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>123.93763437236848</v>
+        <v>130.3</v>
       </c>
       <c r="C13" t="n">
-        <v>99.47483491157931</v>
+        <v>107.13</v>
       </c>
       <c r="D13" t="n">
-        <v>148.40043383315765</v>
+        <v>153.48</v>
       </c>
       <c r="E13" t="n">
-        <v>86.52501111690262</v>
+        <v>94.86</v>
       </c>
       <c r="F13" t="n">
-        <v>161.35025762783434</v>
+        <v>165.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>126.92756673219004</v>
+        <v>123.93</v>
       </c>
       <c r="C14" t="n">
-        <v>101.1777466565407</v>
+        <v>99.47</v>
       </c>
       <c r="D14" t="n">
-        <v>152.67738680783938</v>
+        <v>148.39</v>
       </c>
       <c r="E14" t="n">
-        <v>87.54661530304311</v>
+        <v>86.52</v>
       </c>
       <c r="F14" t="n">
-        <v>166.30851816133696</v>
+        <v>161.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>126.93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>101.18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>152.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87.55</v>
+      </c>
+      <c r="F15" t="n">
+        <v>166.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>129.91</v>
+      </c>
+      <c r="C16" t="n">
+        <v>102.67</v>
+      </c>
+      <c r="D16" t="n">
+        <v>157.14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>171.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>132.89</v>
+      </c>
+      <c r="C17" t="n">
+        <v>104.37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>89.27</v>
+      </c>
+      <c r="F17" t="n">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>135.88</v>
+      </c>
+      <c r="C18" t="n">
+        <v>106.08</v>
+      </c>
+      <c r="D18" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="E18" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>181.45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>138.88</v>
+      </c>
+      <c r="C19" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>169.97</v>
+      </c>
+      <c r="E19" t="n">
+        <v>91.34</v>
+      </c>
+      <c r="F19" t="n">
+        <v>186.43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>151.27</v>
+      </c>
+      <c r="C20" t="n">
+        <v>118.89</v>
+      </c>
+      <c r="D20" t="n">
+        <v>183.65</v>
+      </c>
+      <c r="E20" t="n">
+        <v>101.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>200.79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>144.89</v>
+      </c>
+      <c r="C21" t="n">
+        <v>111.21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>178.57</v>
+      </c>
+      <c r="E21" t="n">
+        <v>93.38</v>
+      </c>
+      <c r="F21" t="n">
+        <v>196.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>147.89</v>
+      </c>
+      <c r="C22" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>182.87</v>
+      </c>
+      <c r="E22" t="n">
+        <v>94.38</v>
+      </c>
+      <c r="F22" t="n">
+        <v>201.39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>150.87</v>
+      </c>
+      <c r="C23" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>187.34</v>
+      </c>
+      <c r="E23" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>206.65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>153.85</v>
+      </c>
+      <c r="C24" t="n">
+        <v>116.06</v>
+      </c>
+      <c r="D24" t="n">
+        <v>191.64</v>
+      </c>
+      <c r="E24" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>211.64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>156.84</v>
+      </c>
+      <c r="C25" t="n">
+        <v>117.73</v>
+      </c>
+      <c r="D25" t="n">
+        <v>195.95</v>
+      </c>
+      <c r="E25" t="n">
+        <v>97.03</v>
+      </c>
+      <c r="F25" t="n">
+        <v>216.65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>159.85</v>
+      </c>
+      <c r="C26" t="n">
+        <v>119.41</v>
+      </c>
+      <c r="D26" t="n">
+        <v>200.28</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>221.69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>172.23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>130.46</v>
+      </c>
+      <c r="D27" t="n">
+        <v>214.01</v>
+      </c>
+      <c r="E27" t="n">
+        <v>108.34</v>
+      </c>
+      <c r="F27" t="n">
+        <v>236.12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>165.86</v>
+      </c>
+      <c r="C28" t="n">
+        <v>122.73</v>
+      </c>
+      <c r="D28" t="n">
+        <v>208.98</v>
+      </c>
+      <c r="E28" t="n">
+        <v>99.91</v>
+      </c>
+      <c r="F28" t="n">
+        <v>231.81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>168.85</v>
+      </c>
+      <c r="C29" t="n">
+        <v>124.37</v>
+      </c>
+      <c r="D29" t="n">
+        <v>213.33</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100.83</v>
+      </c>
+      <c r="F29" t="n">
+        <v>236.87</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>171.83</v>
+      </c>
+      <c r="C30" t="n">
+        <v>125.83</v>
+      </c>
+      <c r="D30" t="n">
+        <v>217.83</v>
+      </c>
+      <c r="E30" t="n">
+        <v>101.48</v>
+      </c>
+      <c r="F30" t="n">
+        <v>242.18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>174.81</v>
+      </c>
+      <c r="C31" t="n">
+        <v>127.44</v>
+      </c>
+      <c r="D31" t="n">
+        <v>222.18</v>
+      </c>
+      <c r="E31" t="n">
+        <v>102.37</v>
+      </c>
+      <c r="F31" t="n">
+        <v>247.26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>129.06</v>
+      </c>
+      <c r="D32" t="n">
+        <v>226.55</v>
+      </c>
+      <c r="E32" t="n">
+        <v>103.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>252.36</v>
       </c>
     </row>
   </sheetData>
@@ -987,283 +2127,641 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>432.73308384771326</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.0328808804408709</v>
-      </c>
-      <c r="D1" t="n">
-        <v>865.4332868149856</v>
-      </c>
-      <c r="E1" t="n">
-        <v>-229.02477024115547</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1094.490937936582</v>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>471.6775732537152</v>
+        <v>435.47</v>
       </c>
       <c r="C2" t="n">
-        <v>38.679901078030696</v>
+        <v>3.49</v>
       </c>
       <c r="D2" t="n">
-        <v>904.6752454293996</v>
+        <v>867.44</v>
       </c>
       <c r="E2" t="n">
-        <v>-190.5352207304121</v>
+        <v>-225.19</v>
       </c>
       <c r="F2" t="n">
-        <v>1133.8903672378424</v>
+        <v>1096.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>422.7302403086587</v>
+        <v>476.14</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.566464253109643</v>
+        <v>43.87</v>
       </c>
       <c r="D3" t="n">
-        <v>856.0269448704271</v>
+        <v>908.42</v>
       </c>
       <c r="E3" t="n">
-        <v>-239.93988424467307</v>
+        <v>-184.96</v>
       </c>
       <c r="F3" t="n">
-        <v>1085.4003648619905</v>
+        <v>1137.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>405.09850815880054</v>
+        <v>447.11</v>
       </c>
       <c r="C4" t="n">
-        <v>-28.498793969226142</v>
+        <v>14.54</v>
       </c>
       <c r="D4" t="n">
-        <v>838.6958102868273</v>
+        <v>879.69</v>
       </c>
       <c r="E4" t="n">
-        <v>-258.0313407002453</v>
+        <v>-214.45</v>
       </c>
       <c r="F4" t="n">
-        <v>1068.2283570178465</v>
+        <v>1108.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>350.41561883648586</v>
+        <v>395.3</v>
       </c>
       <c r="C5" t="n">
-        <v>-83.48384801800393</v>
+        <v>-37.58</v>
       </c>
       <c r="D5" t="n">
-        <v>784.3150856909756</v>
+        <v>828.17</v>
       </c>
       <c r="E5" t="n">
-        <v>-313.17635109297856</v>
+        <v>-266.73</v>
       </c>
       <c r="F5" t="n">
-        <v>1014.0075887659502</v>
+        <v>1057.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>115.11992787658352</v>
+        <v>356.41</v>
       </c>
       <c r="C6" t="n">
-        <v>-319.0832728221378</v>
+        <v>-76.76</v>
       </c>
       <c r="D6" t="n">
-        <v>549.3231285753048</v>
+        <v>789.59</v>
       </c>
       <c r="E6" t="n">
-        <v>-548.9365628818393</v>
+        <v>-306.07</v>
       </c>
       <c r="F6" t="n">
-        <v>779.1764186350063</v>
+        <v>1018.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>508.9176460912584</v>
+        <v>113.1</v>
       </c>
       <c r="C7" t="n">
-        <v>74.40914049543193</v>
+        <v>-320.37</v>
       </c>
       <c r="D7" t="n">
-        <v>943.4261516870849</v>
+        <v>546.58</v>
       </c>
       <c r="E7" t="n">
-        <v>-155.6057682141506</v>
+        <v>-549.84</v>
       </c>
       <c r="F7" t="n">
-        <v>1173.4410603966674</v>
+        <v>776.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>429.7731213193295</v>
+        <v>501.21</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.043889958472619</v>
+        <v>67.42</v>
       </c>
       <c r="D8" t="n">
-        <v>864.5901325971316</v>
+        <v>934.99</v>
       </c>
       <c r="E8" t="n">
-        <v>-235.22211171109603</v>
+        <v>-162.21</v>
       </c>
       <c r="F8" t="n">
-        <v>1094.768354349755</v>
+        <v>1164.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>468.7176107253315</v>
+        <v>432.99</v>
       </c>
       <c r="C9" t="n">
-        <v>33.59214788308623</v>
+        <v>-1.1</v>
       </c>
       <c r="D9" t="n">
-        <v>903.8430735675768</v>
+        <v>867.08</v>
       </c>
       <c r="E9" t="n">
-        <v>-196.749358264487</v>
+        <v>-230.89</v>
       </c>
       <c r="F9" t="n">
-        <v>1134.18457971515</v>
+        <v>1096.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>419.77027778027497</v>
+        <v>473.67</v>
       </c>
       <c r="C10" t="n">
-        <v>-15.665213345688585</v>
+        <v>39.27</v>
       </c>
       <c r="D10" t="n">
-        <v>855.2057689062385</v>
+        <v>908.07</v>
       </c>
       <c r="E10" t="n">
-        <v>-246.1708385529775</v>
+        <v>-190.69</v>
       </c>
       <c r="F10" t="n">
-        <v>1085.7113941135274</v>
+        <v>1138.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>402.1385456304168</v>
+        <v>444.64</v>
       </c>
       <c r="C11" t="n">
-        <v>-33.608552343921076</v>
+        <v>9.93</v>
       </c>
       <c r="D11" t="n">
-        <v>837.8856436047547</v>
+        <v>879.35</v>
       </c>
       <c r="E11" t="n">
-        <v>-264.2791322525772</v>
+        <v>-220.19</v>
       </c>
       <c r="F11" t="n">
-        <v>1068.5562235134107</v>
+        <v>1109.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>347.45565630810216</v>
+        <v>392.82</v>
       </c>
       <c r="C12" t="n">
-        <v>-88.60462890224193</v>
+        <v>-42.2</v>
       </c>
       <c r="D12" t="n">
-        <v>783.5159415184462</v>
+        <v>827.84</v>
       </c>
       <c r="E12" t="n">
-        <v>-319.4410001189421</v>
+        <v>-272.48</v>
       </c>
       <c r="F12" t="n">
-        <v>1014.3523127351464</v>
+        <v>1058.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>112.15996534819976</v>
+        <v>353.94</v>
       </c>
       <c r="C13" t="n">
-        <v>-324.2150892863675</v>
+        <v>-81.39</v>
       </c>
       <c r="D13" t="n">
-        <v>548.535019982767</v>
+        <v>789.27</v>
       </c>
       <c r="E13" t="n">
-        <v>-555.2180893709606</v>
+        <v>-311.85</v>
       </c>
       <c r="F13" t="n">
-        <v>779.5380200673601</v>
+        <v>1019.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>505.9576835628747</v>
+        <v>110.63</v>
       </c>
       <c r="C14" t="n">
-        <v>69.26627553765815</v>
+        <v>-325.02</v>
       </c>
       <c r="D14" t="n">
-        <v>942.6490915880913</v>
+        <v>546.28</v>
       </c>
       <c r="E14" t="n">
-        <v>-161.90419191600375</v>
+        <v>-555.63</v>
       </c>
       <c r="F14" t="n">
-        <v>1173.819559041753</v>
+        <v>776.89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>498.73</v>
+      </c>
+      <c r="C15" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="D15" t="n">
+        <v>934.69</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-168.02</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1165.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>430.52</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="D16" t="n">
+        <v>866.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-236.72</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1097.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>471.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="D17" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-196.53</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1138.92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>442.16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="D18" t="n">
+        <v>879.08</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-226.05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1110.38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>390.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-46.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>827.59</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-278.36</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1059.05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>351.46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-86.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>789.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-317.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1020.66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>108.15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-329.74</v>
+      </c>
+      <c r="D21" t="n">
+        <v>546.05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-561.54</v>
+      </c>
+      <c r="F21" t="n">
+        <v>777.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>496.26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>58.04</v>
+      </c>
+      <c r="D22" t="n">
+        <v>934.48</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-173.94</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1166.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>428.04</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-10.51</v>
+      </c>
+      <c r="D23" t="n">
+        <v>866.59</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-242.66</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1098.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>468.72</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="D24" t="n">
+        <v>907.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-202.49</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1139.93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>439.69</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D25" t="n">
+        <v>878.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-232.03</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1111.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>387.87</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-51.67</v>
+      </c>
+      <c r="D26" t="n">
+        <v>827.42</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-284.35</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1060.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-90.89</v>
+      </c>
+      <c r="D27" t="n">
+        <v>788.87</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-323.75</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1021.73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>105.68</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-334.54</v>
+      </c>
+      <c r="D28" t="n">
+        <v>545.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-567.57</v>
+      </c>
+      <c r="F28" t="n">
+        <v>778.93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>493.78</v>
+      </c>
+      <c r="C29" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="D29" t="n">
+        <v>934.34</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-179.99</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1167.55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>425.57</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-15.33</v>
+      </c>
+      <c r="D30" t="n">
+        <v>866.46</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-248.72</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1099.86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>466.25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="D31" t="n">
+        <v>907.48</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-208.57</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1141.06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>437.21</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="D32" t="n">
+        <v>878.79</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-238.13</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1112.55</v>
       </c>
     </row>
   </sheetData>
